--- a/Input/Orient_Nextcare/benefits.xlsx
+++ b/Input/Orient_Nextcare/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="123">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -236,8 +236,7 @@
 Consultations covered with AED $</t>
   </si>
   <si>
-    <t xml:space="preserve">•20% up to max AED 50
-•Nil co-pay</t>
+    <t xml:space="preserve">$copay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 15,000 with $ co-pay</t>
@@ -285,9 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Link</t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
@@ -332,7 +328,25 @@
     <t xml:space="preserve">Covered up to AED 10,000 with $ co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Nil/Nil/Nil/Nil</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Consultation- NIL, OP- NIL, Pharmacy- NIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/Nil/Nil/Nil</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">GN Limited Plan</t>
@@ -416,7 +430,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -457,6 +471,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -501,7 +521,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,42 +558,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AT1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BH4" activeCellId="0" sqref="BH4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="58.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="55.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="31.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="46.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="125.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="48.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="38.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.71"/>
@@ -583,11 +613,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="62.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="37.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="31" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="50.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="46" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="35.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="77.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="61" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="23.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="64" style="0" width="11.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +805,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="223" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -888,61 +922,61 @@
         <v>86</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="4"/>
       <c r="AX2" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AY2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AZ2" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="BA2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BB2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BG2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BI2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="BI2" s="0" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="BJ2" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="BK2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="223" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>59</v>
@@ -951,7 +985,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
@@ -984,7 +1018,7 @@
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>70</v>
@@ -993,7 +1027,7 @@
         <v>70</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>72</v>
@@ -1057,46 +1091,46 @@
         <v>86</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW3" s="4"/>
       <c r="AX3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AY3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AZ3" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="BA3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BH3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="223" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>59</v>
@@ -1105,7 +1139,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3" t="s">
@@ -1138,7 +1172,7 @@
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>70</v>
@@ -1147,7 +1181,7 @@
         <v>70</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>72</v>
@@ -1211,46 +1245,46 @@
         <v>86</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW4" s="4"/>
       <c r="AX4" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AY4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AZ4" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="BA4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BH4" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="223" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>59</v>
@@ -1259,7 +1293,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
@@ -1292,7 +1326,7 @@
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>70</v>
@@ -1301,7 +1335,7 @@
         <v>70</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>72</v>
@@ -1310,11 +1344,11 @@
         <v>73</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>76</v>
@@ -1327,14 +1361,14 @@
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AF5" s="4"/>
       <c r="AG5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH5" s="3" t="s">
         <v>82</v>
@@ -1365,43 +1399,43 @@
         <v>86</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW5" s="4"/>
       <c r="AX5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AY5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AZ5" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="BA5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BC5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="223" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>59</v>
@@ -1410,7 +1444,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
@@ -1443,7 +1477,7 @@
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>70</v>
@@ -1452,7 +1486,7 @@
         <v>70</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>72</v>
@@ -1461,11 +1495,11 @@
         <v>73</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>76</v>
@@ -1478,14 +1512,14 @@
       </c>
       <c r="AC6" s="4"/>
       <c r="AD6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AF6" s="4"/>
       <c r="AG6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH6" s="3" t="s">
         <v>82</v>
@@ -1516,43 +1550,43 @@
         <v>86</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW6" s="4"/>
       <c r="AX6" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AY6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AZ6" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="BA6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="223" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>59</v>
@@ -1561,7 +1595,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
@@ -1575,7 +1609,7 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>66</v>
@@ -1594,7 +1628,7 @@
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>70</v>
@@ -1603,7 +1637,7 @@
         <v>70</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>72</v>
@@ -1612,11 +1646,11 @@
         <v>73</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>76</v>
@@ -1632,7 +1666,7 @@
         <v>82</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF7" s="4"/>
       <c r="AG7" s="3" t="s">
@@ -1667,38 +1701,38 @@
         <v>86</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW7" s="4"/>
       <c r="AX7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="AY7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AZ7" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="BA7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
